--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67346.91829930982</v>
+        <v>-64971.80342466654</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30062971.78277535</v>
+        <v>30850287.89598271</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20368936.45202664</v>
+        <v>20324508.76754998</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760610.3632466143</v>
+        <v>734071.1839565248</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L13" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M13" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N13" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O13" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P13" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L16" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M16" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N16" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O16" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P16" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P19" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>5.4694522901083</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922236</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>1.368767089206766</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861341</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K22" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L22" t="n">
-        <v>21.91875989570122</v>
+        <v>9.779680524136499</v>
       </c>
       <c r="M22" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690756</v>
       </c>
       <c r="N22" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298504</v>
       </c>
       <c r="O22" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P22" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L25" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M25" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N25" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O25" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P25" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>5.4694522901083</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922236</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>1.368767089206766</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861341</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L28" t="n">
-        <v>21.91875989570122</v>
+        <v>9.779680524136499</v>
       </c>
       <c r="M28" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690756</v>
       </c>
       <c r="N28" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298504</v>
       </c>
       <c r="O28" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P28" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L31" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M31" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N31" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O31" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P31" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L34" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M34" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N34" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O34" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P34" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K37" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L37" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M37" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N37" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O37" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P37" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K40" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L40" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M40" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N40" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O40" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P40" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K43" t="n">
-        <v>20.964654452712</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L43" t="n">
-        <v>21.91875989570122</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M43" t="n">
-        <v>22.57543989148582</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N43" t="n">
-        <v>20.74890097560039</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O43" t="n">
-        <v>22.49918749842445</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P43" t="n">
-        <v>22.38080065798648</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>9.188120483615119</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>7.531191812490526</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>8.477581017613941</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>16.73234637554063</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>10.07631485409217</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23349,10 +23351,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H12" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T12" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23428,13 +23430,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23507,13 +23509,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23586,10 +23588,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H15" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T15" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23665,13 +23667,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23744,13 +23746,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23823,10 +23825,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H18" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T18" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23902,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23981,13 +23983,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24060,10 +24062,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -24139,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24218,13 +24220,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24297,10 +24299,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T24" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24376,13 +24378,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24455,13 +24457,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24534,10 +24536,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H27" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T27" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24613,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24692,13 +24694,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24771,10 +24773,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T30" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
@@ -24850,13 +24852,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24929,13 +24931,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25008,10 +25010,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H33" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T33" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U33" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V33" t="n">
         <v>202.9234074721264</v>
@@ -25087,13 +25089,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25166,13 +25168,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25245,10 +25247,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H36" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T36" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U36" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V36" t="n">
         <v>202.9234074721264</v>
@@ -25324,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25403,13 +25405,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25482,10 +25484,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H39" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T39" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -25561,13 +25563,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25640,13 +25642,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25719,10 +25721,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>93.11323406457203</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H42" t="n">
-        <v>52.84233230531351</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>80.51100496435802</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T42" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U42" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25798,13 +25800,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25877,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.0867433522511</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>292.750006414009</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>26.49318908467228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>98.56266449137924</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>217.8017310251259</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7546460348163</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25956,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>93.00144749716304</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>51.76270940428461</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>78.43461850393234</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0105580319263</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9131597401249</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26035,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5006819057487</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>141.5250666733238</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>95.95252362624773</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>42.35432047744712</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>166.8004460662635</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>240.5055224018871</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3774921181736</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>65778.9740615059</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>65778.9740615059</v>
+        <v>62394.64303096692</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>10799.5330548741</v>
       </c>
       <c r="E2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176428</v>
       </c>
       <c r="F2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176428</v>
       </c>
       <c r="G2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176428</v>
       </c>
       <c r="H2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176427</v>
       </c>
       <c r="I2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176428</v>
       </c>
       <c r="J2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176427</v>
       </c>
       <c r="K2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176427</v>
       </c>
       <c r="L2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176427</v>
       </c>
       <c r="M2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176428</v>
       </c>
       <c r="N2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176427</v>
       </c>
       <c r="O2" t="n">
-        <v>10799.5330548741</v>
+        <v>11201.83160176428</v>
       </c>
       <c r="P2" t="n">
-        <v>10799.5330548741</v>
+        <v>11261.29433151888</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>36376.84602210749</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4454.363189059241</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>7854.205858090253</v>
       </c>
       <c r="E4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="F4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="G4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="H4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606843</v>
       </c>
       <c r="I4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="J4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606843</v>
       </c>
       <c r="K4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="L4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="M4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="N4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="O4" t="n">
-        <v>7854.205858090253</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="P4" t="n">
-        <v>7854.205858090253</v>
+        <v>1993.15525282022</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>987.0703037976499</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>987.0703037976499</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1132.966666529316</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-30682.27280321615</v>
       </c>
       <c r="E6" t="n">
-        <v>2945.327196783847</v>
+        <v>-28823.1779957477</v>
       </c>
       <c r="F6" t="n">
-        <v>2945.327196783844</v>
+        <v>7553.668026359782</v>
       </c>
       <c r="G6" t="n">
-        <v>2945.327196783847</v>
+        <v>7553.668026359782</v>
       </c>
       <c r="H6" t="n">
-        <v>2945.327196783845</v>
+        <v>7553.668026359781</v>
       </c>
       <c r="I6" t="n">
-        <v>2945.327196783847</v>
+        <v>7553.668026359782</v>
       </c>
       <c r="J6" t="n">
-        <v>2945.327196783847</v>
+        <v>7553.668026359781</v>
       </c>
       <c r="K6" t="n">
-        <v>2945.327196783845</v>
+        <v>7553.66802635978</v>
       </c>
       <c r="L6" t="n">
-        <v>2945.327196783847</v>
+        <v>7553.66802635978</v>
       </c>
       <c r="M6" t="n">
-        <v>2945.327196783845</v>
+        <v>7553.668026359782</v>
       </c>
       <c r="N6" t="n">
-        <v>2945.327196783847</v>
+        <v>7553.668026359778</v>
       </c>
       <c r="O6" t="n">
-        <v>2945.327196783844</v>
+        <v>7553.668026359782</v>
       </c>
       <c r="P6" t="n">
-        <v>2945.327196783849</v>
+        <v>3680.809223110102</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>45.27845430264449</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>45.27845430264449</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>51.97094800593192</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.69249370328744</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.017477827146541</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>19.65653741537568</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.9405958148530489</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.201350793710048</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>15.7265740760421</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>12.43192579268081</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.046809425549393</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.08164967169329333</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.772631788715838</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>9.486207311275351</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.004453618455997823</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7.017477827146541</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>19.65653741537568</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.9405958148530489</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>9.201350793710048</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>15.7265740760421</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>12.43192579268081</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>6.046809425549393</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.08164967169329333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.772631788715838</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>9.486207311275351</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.004453618455997823</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.208928434194701</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.139688326696482</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.05471345929122</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>17.73253969173252</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>26.57648031119422</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>32.97047387918031</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>36.68600492079032</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>35.20209071692246</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>30.04416999774077</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>22.56192044814304</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>13.1241007544829</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.760956694211755</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.9145842206873043</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.01671427473557608</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.1117865674089856</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.079622901028888</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.848791904212884</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.56137916033754</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>18.05107917673958</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>21.34633145549306</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.26945727136456</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.940573018603515</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2.076386460425675</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.4505783133721832</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.007354379434801691</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.09371810296151657</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.8332391336033026</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.818358950879063</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.625869879379222</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>10.88833959861983</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>13.93332596211493</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>14.69073863059482</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>14.34142570137463</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.24662786223328</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>11.33477856181833</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>7.84761314889572</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>4.213906702251462</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.633250939792974</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.4004318944719343</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.005111896525173638</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64971.80342466654</v>
+        <v>-76389.45494008661</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30850287.89598271</v>
+        <v>30841938.67074786</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20324508.76754998</v>
+        <v>20325049.33782047</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>734071.1839565248</v>
+        <v>734272.7236608253</v>
       </c>
     </row>
     <row r="11">
@@ -8932,10 +8932,10 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L14" t="n">
-        <v>9.587300011056815</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M14" t="n">
-        <v>5.469452290108304</v>
+        <v>5.4694522901083</v>
       </c>
       <c r="N14" t="n">
         <v>4.80063671441944</v>
@@ -8947,7 +8947,7 @@
         <v>11.40009215480153</v>
       </c>
       <c r="Q14" t="n">
-        <v>16.46813718922237</v>
+        <v>16.46813718922236</v>
       </c>
       <c r="R14" t="n">
         <v>23.59858876881258</v>
@@ -9008,10 +9008,10 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K15" t="n">
-        <v>6.672659757291242</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36876708920677</v>
+        <v>1.368767089206766</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.173356832861344</v>
+        <v>3.173356832861341</v>
       </c>
       <c r="Q15" t="n">
         <v>10.31511249629769</v>
@@ -9090,13 +9090,13 @@
         <v>11.47844714143665</v>
       </c>
       <c r="L16" t="n">
-        <v>9.7796805241365</v>
+        <v>9.779680524136499</v>
       </c>
       <c r="M16" t="n">
-        <v>9.776482718690758</v>
+        <v>9.776482718690756</v>
       </c>
       <c r="N16" t="n">
-        <v>8.254274397298506</v>
+        <v>8.254274397298504</v>
       </c>
       <c r="O16" t="n">
         <v>10.95837753944877</v>
@@ -9880,10 +9880,10 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L26" t="n">
-        <v>9.587300011056811</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M26" t="n">
-        <v>5.4694522901083</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N26" t="n">
         <v>4.80063671441944</v>
@@ -9895,7 +9895,7 @@
         <v>11.40009215480153</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.46813718922236</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R26" t="n">
         <v>23.59858876881258</v>
@@ -9956,10 +9956,10 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K27" t="n">
-        <v>6.672659757291241</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L27" t="n">
-        <v>1.368767089206766</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.173356832861341</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q27" t="n">
         <v>10.31511249629769</v>
@@ -10038,13 +10038,13 @@
         <v>11.47844714143665</v>
       </c>
       <c r="L28" t="n">
-        <v>9.779680524136499</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M28" t="n">
-        <v>9.776482718690756</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N28" t="n">
-        <v>8.254274397298504</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O28" t="n">
         <v>10.95837753944877</v>
@@ -10354,10 +10354,10 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L32" t="n">
-        <v>9.587300011056815</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M32" t="n">
-        <v>5.469452290108304</v>
+        <v>5.4694522901083</v>
       </c>
       <c r="N32" t="n">
         <v>4.80063671441944</v>
@@ -10369,7 +10369,7 @@
         <v>11.40009215480153</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.46813718922237</v>
+        <v>16.46813718922236</v>
       </c>
       <c r="R32" t="n">
         <v>23.59858876881258</v>
@@ -10430,10 +10430,10 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K33" t="n">
-        <v>6.672659757291242</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36876708920677</v>
+        <v>1.368767089206766</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.173356832861344</v>
+        <v>3.173356832861341</v>
       </c>
       <c r="Q33" t="n">
         <v>10.31511249629769</v>
@@ -10512,13 +10512,13 @@
         <v>11.47844714143665</v>
       </c>
       <c r="L34" t="n">
-        <v>9.7796805241365</v>
+        <v>9.779680524136499</v>
       </c>
       <c r="M34" t="n">
-        <v>9.776482718690758</v>
+        <v>9.776482718690756</v>
       </c>
       <c r="N34" t="n">
-        <v>8.254274397298506</v>
+        <v>8.254274397298504</v>
       </c>
       <c r="O34" t="n">
         <v>10.95837753944877</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.687419793854</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K44" t="n">
-        <v>9.188120483615119</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L44" t="n">
-        <v>5.341568553442613</v>
+        <v>9.587300011056815</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7452579786414901</v>
+        <v>5.469452290108304</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O44" t="n">
-        <v>2.188868639101635</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P44" t="n">
-        <v>7.531191812490526</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.562754156455</v>
+        <v>16.46813718922237</v>
       </c>
       <c r="R44" t="n">
-        <v>21.90854914031357</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>12.32359484578712</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J45" t="n">
-        <v>10.04973517299579</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K45" t="n">
-        <v>4.348154656593753</v>
+        <v>6.672659757291242</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.36876708920677</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.424509749335602</v>
+        <v>3.173356832861344</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.477581017613941</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R45" t="n">
-        <v>16.73234637554063</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.01088610452265</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K46" t="n">
-        <v>10.07631485409217</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L46" t="n">
-        <v>7.985433933586291</v>
+        <v>9.7796805241365</v>
       </c>
       <c r="M46" t="n">
-        <v>7.884701260890999</v>
+        <v>9.776482718690758</v>
       </c>
       <c r="N46" t="n">
-        <v>6.40747527422576</v>
+        <v>8.254274397298506</v>
       </c>
       <c r="O46" t="n">
-        <v>9.252559636191176</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P46" t="n">
-        <v>11.04602209616816</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.77194961588923</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.0867433522511</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H44" t="n">
-        <v>292.750006414009</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I44" t="n">
-        <v>26.49318908467228</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>98.56266449137924</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8017310251259</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25958,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.00144749716304</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H45" t="n">
-        <v>51.76270940428461</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>78.43461850393234</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T45" t="n">
-        <v>140.0105580319263</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5006819057487</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5250666733238</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I46" t="n">
-        <v>95.95252362624773</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.35432047744712</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S46" t="n">
-        <v>166.8004460662635</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5055224018871</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>62394.64303096692</v>
+        <v>62743.64459016068</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>11201.83160176428</v>
       </c>
       <c r="F2" t="n">
-        <v>11201.83160176428</v>
+        <v>11201.83160176427</v>
       </c>
       <c r="G2" t="n">
         <v>11201.83160176428</v>
@@ -26334,19 +26334,19 @@
         <v>11201.83160176427</v>
       </c>
       <c r="I2" t="n">
+        <v>11201.83160176427</v>
+      </c>
+      <c r="J2" t="n">
         <v>11201.83160176428</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>11201.83160176428</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11201.83160176428</v>
+      </c>
+      <c r="M2" t="n">
         <v>11201.83160176427</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11201.83160176427</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11201.83160176427</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11201.83160176428</v>
       </c>
       <c r="N2" t="n">
         <v>11201.83160176427</v>
@@ -26355,7 +26355,7 @@
         <v>11201.83160176428</v>
       </c>
       <c r="P2" t="n">
-        <v>11261.29433151888</v>
+        <v>11201.83160176428</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4454.363189059241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,13 +26435,13 @@
         <v>2661.093271606844</v>
       </c>
       <c r="H4" t="n">
-        <v>2661.093271606843</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="I4" t="n">
         <v>2661.093271606844</v>
       </c>
       <c r="J4" t="n">
-        <v>2661.093271606843</v>
+        <v>2661.093271606844</v>
       </c>
       <c r="K4" t="n">
         <v>2661.093271606844</v>
@@ -26459,7 +26459,7 @@
         <v>2661.093271606844</v>
       </c>
       <c r="P4" t="n">
-        <v>1993.15525282022</v>
+        <v>2661.093271606844</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>987.0703037976498</v>
       </c>
       <c r="F5" t="n">
-        <v>987.0703037976498</v>
+        <v>987.0703037976499</v>
       </c>
       <c r="G5" t="n">
         <v>987.0703037976498</v>
@@ -26493,13 +26493,13 @@
         <v>987.0703037976498</v>
       </c>
       <c r="J5" t="n">
-        <v>987.0703037976499</v>
+        <v>987.0703037976498</v>
       </c>
       <c r="K5" t="n">
         <v>987.0703037976498</v>
       </c>
       <c r="L5" t="n">
-        <v>987.0703037976498</v>
+        <v>987.0703037976499</v>
       </c>
       <c r="M5" t="n">
         <v>987.0703037976498</v>
@@ -26511,7 +26511,7 @@
         <v>987.0703037976498</v>
       </c>
       <c r="P5" t="n">
-        <v>1132.966666529316</v>
+        <v>987.0703037976498</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001793</v>
       </c>
       <c r="C6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001793</v>
       </c>
       <c r="D6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001793</v>
       </c>
       <c r="E6" t="n">
-        <v>-28823.1779957477</v>
+        <v>-30177.4498330323</v>
       </c>
       <c r="F6" t="n">
-        <v>7553.668026359782</v>
+        <v>6199.396189075182</v>
       </c>
       <c r="G6" t="n">
-        <v>7553.668026359782</v>
+        <v>6199.396189075185</v>
       </c>
       <c r="H6" t="n">
-        <v>7553.668026359781</v>
+        <v>6199.396189075183</v>
       </c>
       <c r="I6" t="n">
-        <v>7553.668026359782</v>
+        <v>6199.396189075182</v>
       </c>
       <c r="J6" t="n">
-        <v>7553.668026359781</v>
+        <v>6199.396189075185</v>
       </c>
       <c r="K6" t="n">
-        <v>7553.66802635978</v>
+        <v>6199.396189075185</v>
       </c>
       <c r="L6" t="n">
-        <v>7553.66802635978</v>
+        <v>6199.396189075185</v>
       </c>
       <c r="M6" t="n">
-        <v>7553.668026359782</v>
+        <v>6199.396189075183</v>
       </c>
       <c r="N6" t="n">
-        <v>7553.668026359778</v>
+        <v>6199.396189075182</v>
       </c>
       <c r="O6" t="n">
-        <v>7553.668026359782</v>
+        <v>6199.396189075185</v>
       </c>
       <c r="P6" t="n">
-        <v>3680.809223110102</v>
+        <v>6199.396189075185</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>45.27845430264448</v>
       </c>
       <c r="F3" t="n">
-        <v>45.27845430264448</v>
+        <v>45.27845430264449</v>
       </c>
       <c r="G3" t="n">
         <v>45.27845430264448</v>
@@ -26761,13 +26761,13 @@
         <v>45.27845430264448</v>
       </c>
       <c r="J3" t="n">
-        <v>45.27845430264449</v>
+        <v>45.27845430264448</v>
       </c>
       <c r="K3" t="n">
         <v>45.27845430264448</v>
       </c>
       <c r="L3" t="n">
-        <v>45.27845430264448</v>
+        <v>45.27845430264449</v>
       </c>
       <c r="M3" t="n">
         <v>45.27845430264448</v>
@@ -26779,7 +26779,7 @@
         <v>45.27845430264448</v>
       </c>
       <c r="P3" t="n">
-        <v>51.97094800593192</v>
+        <v>45.27845430264448</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.69249370328744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31995,7 +31995,7 @@
         <v>1.864152643726463</v>
       </c>
       <c r="I14" t="n">
-        <v>7.01747782714654</v>
+        <v>7.017477827146541</v>
       </c>
       <c r="J14" t="n">
         <v>15.44905411404652</v>
@@ -32019,7 +32019,7 @@
         <v>26.17526965542977</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.65653741537567</v>
+        <v>19.65653741537568</v>
       </c>
       <c r="R14" t="n">
         <v>11.43406112598389</v>
@@ -32071,16 +32071,16 @@
         <v>0.09739139227361267</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9405958148530488</v>
+        <v>0.9405958148530489</v>
       </c>
       <c r="I15" t="n">
         <v>3.353168549771314</v>
       </c>
       <c r="J15" t="n">
-        <v>9.201350793710047</v>
+        <v>9.201350793710048</v>
       </c>
       <c r="K15" t="n">
-        <v>15.72657407604209</v>
+        <v>15.7265740760421</v>
       </c>
       <c r="L15" t="n">
         <v>21.14631962502279</v>
@@ -32098,10 +32098,10 @@
         <v>18.59748437196732</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.4319257926808</v>
+        <v>12.43192579268081</v>
       </c>
       <c r="R15" t="n">
-        <v>6.046809425549392</v>
+        <v>6.046809425549393</v>
       </c>
       <c r="S15" t="n">
         <v>1.809002395959427</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08164967169329332</v>
+        <v>0.08164967169329333</v>
       </c>
       <c r="H16" t="n">
         <v>0.7259398083276448</v>
@@ -32156,10 +32156,10 @@
         <v>2.455428308740131</v>
       </c>
       <c r="J16" t="n">
-        <v>5.772631788715837</v>
+        <v>5.772631788715838</v>
       </c>
       <c r="K16" t="n">
-        <v>9.486207311275349</v>
+        <v>9.486207311275351</v>
       </c>
       <c r="L16" t="n">
         <v>12.13907937156472</v>
@@ -32189,7 +32189,7 @@
         <v>0.3488667790531623</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004453618455997822</v>
+        <v>0.004453618455997823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>1.864152643726463</v>
       </c>
       <c r="I26" t="n">
-        <v>7.017477827146541</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J26" t="n">
         <v>15.44905411404652</v>
@@ -32967,7 +32967,7 @@
         <v>26.17526965542977</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.65653741537568</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R26" t="n">
         <v>11.43406112598389</v>
@@ -33019,16 +33019,16 @@
         <v>0.09739139227361267</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9405958148530489</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I27" t="n">
         <v>3.353168549771314</v>
       </c>
       <c r="J27" t="n">
-        <v>9.201350793710048</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K27" t="n">
-        <v>15.7265740760421</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L27" t="n">
         <v>21.14631962502279</v>
@@ -33046,10 +33046,10 @@
         <v>18.59748437196732</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.43192579268081</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R27" t="n">
-        <v>6.046809425549393</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S27" t="n">
         <v>1.809002395959427</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08164967169329333</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H28" t="n">
         <v>0.7259398083276448</v>
@@ -33104,10 +33104,10 @@
         <v>2.455428308740131</v>
       </c>
       <c r="J28" t="n">
-        <v>5.772631788715838</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K28" t="n">
-        <v>9.486207311275351</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L28" t="n">
         <v>12.13907937156472</v>
@@ -33137,7 +33137,7 @@
         <v>0.3488667790531623</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004453618455997823</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>1.864152643726463</v>
       </c>
       <c r="I32" t="n">
-        <v>7.01747782714654</v>
+        <v>7.017477827146541</v>
       </c>
       <c r="J32" t="n">
         <v>15.44905411404652</v>
@@ -33441,7 +33441,7 @@
         <v>26.17526965542977</v>
       </c>
       <c r="Q32" t="n">
-        <v>19.65653741537567</v>
+        <v>19.65653741537568</v>
       </c>
       <c r="R32" t="n">
         <v>11.43406112598389</v>
@@ -33493,16 +33493,16 @@
         <v>0.09739139227361267</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9405958148530488</v>
+        <v>0.9405958148530489</v>
       </c>
       <c r="I33" t="n">
         <v>3.353168549771314</v>
       </c>
       <c r="J33" t="n">
-        <v>9.201350793710047</v>
+        <v>9.201350793710048</v>
       </c>
       <c r="K33" t="n">
-        <v>15.72657407604209</v>
+        <v>15.7265740760421</v>
       </c>
       <c r="L33" t="n">
         <v>21.14631962502279</v>
@@ -33520,10 +33520,10 @@
         <v>18.59748437196732</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.4319257926808</v>
+        <v>12.43192579268081</v>
       </c>
       <c r="R33" t="n">
-        <v>6.046809425549392</v>
+        <v>6.046809425549393</v>
       </c>
       <c r="S33" t="n">
         <v>1.809002395959427</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08164967169329332</v>
+        <v>0.08164967169329333</v>
       </c>
       <c r="H34" t="n">
         <v>0.7259398083276448</v>
@@ -33578,10 +33578,10 @@
         <v>2.455428308740131</v>
       </c>
       <c r="J34" t="n">
-        <v>5.772631788715837</v>
+        <v>5.772631788715838</v>
       </c>
       <c r="K34" t="n">
-        <v>9.486207311275349</v>
+        <v>9.486207311275351</v>
       </c>
       <c r="L34" t="n">
         <v>12.13907937156472</v>
@@ -33611,7 +33611,7 @@
         <v>0.3488667790531623</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004453618455997822</v>
+        <v>0.004453618455997823</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.208928434194701</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H44" t="n">
-        <v>2.139688326696482</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I44" t="n">
-        <v>8.05471345929122</v>
+        <v>7.01747782714654</v>
       </c>
       <c r="J44" t="n">
-        <v>17.73253969173252</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K44" t="n">
-        <v>26.57648031119422</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L44" t="n">
-        <v>32.97047387918031</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M44" t="n">
-        <v>36.68600492079032</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O44" t="n">
-        <v>35.20209071692246</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P44" t="n">
-        <v>30.04416999774077</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q44" t="n">
-        <v>22.56192044814304</v>
+        <v>19.65653741537567</v>
       </c>
       <c r="R44" t="n">
-        <v>13.1241007544829</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S44" t="n">
-        <v>4.760956694211755</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H45" t="n">
-        <v>1.079622901028888</v>
+        <v>0.9405958148530488</v>
       </c>
       <c r="I45" t="n">
-        <v>3.848791904212884</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J45" t="n">
-        <v>10.56137916033754</v>
+        <v>9.201350793710047</v>
       </c>
       <c r="K45" t="n">
-        <v>18.05107917673958</v>
+        <v>15.72657407604209</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -34465,22 +34465,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.34633145549306</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.26945727136456</v>
+        <v>12.4319257926808</v>
       </c>
       <c r="R45" t="n">
-        <v>6.940573018603515</v>
+        <v>6.046809425549392</v>
       </c>
       <c r="S45" t="n">
-        <v>2.076386460425675</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U45" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.08164967169329332</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I46" t="n">
-        <v>2.818358950879063</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J46" t="n">
-        <v>6.625869879379222</v>
+        <v>5.772631788715837</v>
       </c>
       <c r="K46" t="n">
-        <v>10.88833959861983</v>
+        <v>9.486207311275349</v>
       </c>
       <c r="L46" t="n">
-        <v>13.93332596211493</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M46" t="n">
-        <v>14.69073863059482</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N46" t="n">
-        <v>14.34142570137463</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O46" t="n">
-        <v>13.24662786223328</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P46" t="n">
-        <v>11.33477856181833</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.84761314889572</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R46" t="n">
-        <v>4.213906702251462</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S46" t="n">
-        <v>1.633250939792974</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U46" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.004453618455997822</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
